--- a/backend/frontend/public/excel_folder/S01.xlsx
+++ b/backend/frontend/public/excel_folder/S01.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Code\project\ExcelSystem\backend\frontend\public\excel_folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE54A3E-87CD-41F1-A6C4-1811D4731DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="8" r:id="rId1"/>
@@ -18,10 +24,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1-3'!$A$1:$T$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1-4'!$A$1:$T$27</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -252,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0&quot;天&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1053,6 +1068,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1108,12 +1129,6 @@
     <xf numFmtId="179" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1422,18 +1437,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="70" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1470,10 +1485,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23" t="s">
         <v>47</v>
       </c>
@@ -1481,24 +1496,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="78">
+      <c r="H2" s="80">
         <v>1</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -1510,10 +1525,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -1530,10 +1545,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="72"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="52" t="e">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>#VALUE!</v>
@@ -1561,34 +1576,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="65">
+      <c r="E4" s="67">
         <v>44501</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="65">
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
         <v>44502</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="65">
+      <c r="H4" s="68"/>
+      <c r="I4" s="67">
         <v>44503</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="65">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67">
         <v>44504</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="65">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67">
         <v>44505</v>
       </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="65">
+      <c r="N4" s="68"/>
+      <c r="O4" s="67">
         <v>44506</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="65">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>44507</v>
       </c>
-      <c r="R4" s="66"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="53" t="s">
         <v>50</v>
       </c>
@@ -3223,31 +3238,24 @@
         <v>53</v>
       </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -3261,6 +3269,13 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.5625" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3272,7 +3287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
@@ -3313,10 +3328,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23" t="s">
         <v>48</v>
       </c>
@@ -3324,24 +3339,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="78">
+      <c r="H2" s="80">
         <v>1</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -3353,10 +3368,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -3373,10 +3388,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="72"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -3404,34 +3419,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="65">
+      <c r="E4" s="67">
         <v>44501</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="65">
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
         <v>44502</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="65">
+      <c r="H4" s="68"/>
+      <c r="I4" s="67">
         <v>44503</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="65">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67">
         <v>44504</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="65">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67">
         <v>44505</v>
       </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="65">
+      <c r="N4" s="68"/>
+      <c r="O4" s="67">
         <v>44506</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="65">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>44507</v>
       </c>
-      <c r="R4" s="66"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="53" t="s">
         <v>50</v>
       </c>
@@ -4862,31 +4877,24 @@
         <v>53</v>
       </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -4900,6 +4908,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.47499999999999998" bottom="0.61250000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4911,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
@@ -4951,10 +4966,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23" t="s">
         <v>49</v>
       </c>
@@ -4962,24 +4977,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="78">
+      <c r="H2" s="80">
         <v>1</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -4991,10 +5006,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -5011,10 +5026,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="72"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -5042,34 +5057,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="65">
+      <c r="E4" s="67">
         <v>44501</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="65">
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
         <v>44502</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="65">
+      <c r="H4" s="68"/>
+      <c r="I4" s="67">
         <v>44503</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="65">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67">
         <v>44504</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="65">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67">
         <v>44505</v>
       </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="65">
+      <c r="N4" s="68"/>
+      <c r="O4" s="67">
         <v>44506</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="65">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>44507</v>
       </c>
-      <c r="R4" s="66"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="53" t="s">
         <v>50</v>
       </c>
@@ -6500,31 +6515,24 @@
         <v>53</v>
       </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -6538,6 +6546,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.47499999999999998" bottom="0.61250000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6549,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A3" zoomScale="70" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
@@ -6590,10 +6605,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
@@ -6601,24 +6616,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="78">
+      <c r="H2" s="80">
         <v>1</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -6630,10 +6645,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -6650,10 +6665,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="72"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -6681,34 +6696,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="65">
+      <c r="E4" s="67">
         <v>44501</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="65">
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
         <v>44502</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="65">
+      <c r="H4" s="68"/>
+      <c r="I4" s="67">
         <v>44503</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="65">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67">
         <v>44504</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="65">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67">
         <v>44505</v>
       </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="65">
+      <c r="N4" s="68"/>
+      <c r="O4" s="67">
         <v>44506</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="65">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>44507</v>
       </c>
-      <c r="R4" s="66"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="53" t="s">
         <v>50</v>
       </c>
@@ -8139,31 +8154,24 @@
         <v>53</v>
       </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -8177,6 +8185,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.21249999999999999" top="0.47499999999999998" bottom="0.51875000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>
